--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008133</t>
+          <t>009576</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安优质生活混合</t>
+          <t>东方红智远三年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>67.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006263</t>
+          <t>008133</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+          <t>华安优质生活混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>30.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>161124</t>
+          <t>870017</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+          <t>广发资管消费精选灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.31</t>
+          <t>5.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>97.93</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>6.82</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>870017</t>
+          <t>006721</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发资管消费精选灵活配置混合</t>
+          <t>平安核心优势混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -642,15 +702,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>87.08</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006721</t>
+          <t>161124</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>平安核心优势混合C</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>87.08</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009576</t>
+          <t>006263</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>东方红智远三年持有期混合</t>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>90.91</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -721,7 +811,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,15 +832,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -762,26 +862,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008861</t>
+          <t>501054</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合A</t>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>139.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3835</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -790,26 +900,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010093</t>
+          <t>009576</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得港股通新机遇灵活配置混合C</t>
+          <t>东方红智远三年持有期混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>78.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7437</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -818,26 +938,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501054</t>
+          <t>008133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+          <t>华安优质生活混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>97.05</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5143</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -846,26 +976,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011032</t>
+          <t>009778</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+          <t>长信消费升级混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>97.05</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3555</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -884,15 +1024,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>94.24</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>7.26</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2657</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>4</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009778</t>
+          <t>519991</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长信消费升级混合A</t>
+          <t>长信双利优选混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>2</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1153</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009779</t>
+          <t>007132</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长信消费升级混合C</t>
+          <t>长城港股通价值精选多策略混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.59</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0997</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006396</t>
+          <t>009779</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长信双利优选混合E</t>
+          <t>长信消费升级混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>9</v>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007132</t>
+          <t>010808</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城港股通价值精选多策略混合</t>
+          <t>达诚策略先锋混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>87.91</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010808</t>
+          <t>008861</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>达诚策略先锋混合A</t>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="12">
@@ -1052,15 +1252,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>91.71</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>519991</t>
+          <t>011032</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长信双利优选混合A</t>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>008133</t>
+          <t>010093</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华安优质生活混合</t>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.55</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5.59</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1126,26 +1356,30 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>009576</t>
+          <t>006396</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1364,7 +1365,6 @@
           <t>长信双利优选混合E</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>86.69</t>
@@ -1379,6 +1379,700 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>158.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.9516</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3938</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5223</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3916</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009778</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长信消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3262</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2324</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1716</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009779</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长信消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.05</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011179</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011180</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>浙商智选食品饮料股票C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2058,7 +2059,6 @@
           <t>东方红启阳三年持有期混合B</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>90.07</t>
@@ -2073,6 +2073,594 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>136.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.9599</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.7307</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010591</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3492</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>100061</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中国中小盘混合(QDII)人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3492</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1289</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5611</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012150</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺德价值发现一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4579</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有期混合型证券投资基金B</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>79.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008861</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010093</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西部利得港股通新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2667,4 +2668,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>8</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2676,7 +2677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2687,17 +2688,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2707,14 +2728,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>14.16</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6470</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2723,14 +2766,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.1</v>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.58</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5894</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -2739,14 +2804,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.71</v>
+          <t>519991</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信双利优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2755,13 +2842,151 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006396</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信双利优选混合E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>8</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2885,7 +2886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2896,17 +2897,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2937,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.37</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>109.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.1093</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2932,14 +2975,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>14.16</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1882</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -2948,14 +3013,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.1</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.85</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7451</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2964,14 +3051,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>14</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.71</v>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -2980,13 +3089,426 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6966</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.63</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5203</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001764</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发沪港深新机遇股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4370</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>78.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1471</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>14</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3391,7 +3392,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3402,17 +3403,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3422,14 +3443,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.93</v>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.3779</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3438,14 +3481,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.37</v>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1691</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -3454,14 +3519,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>14.16</v>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.60</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9379</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -3470,14 +3557,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>17</v>
-      </c>
-      <c r="D5" t="n">
-        <v>14.1</v>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.65</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -3486,14 +3595,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>14</v>
-      </c>
-      <c r="D6" t="n">
-        <v>11.71</v>
+          <t>010887</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -3502,13 +3633,639 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4885</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4290</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2498</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010888</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1764</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012924</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012925</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏新时代灵活配置混合（QDII）美元现钞</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008061</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008062</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>惠升惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>14</v>
+      </c>
+      <c r="D5" t="n">
+        <v>14.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>14.1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>14</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.44</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>13.42</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
-        <v>10.93</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>3.37</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>14.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>14.1</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>11.71</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4953</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.7260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6125</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5125</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4211</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2913</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1339,7 +1792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1844,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2052,7 +2505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2640,7 +3093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3333,7 +3786,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3914,7 +4367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/09922-九毛九.xlsx
+++ b/数据整理/stocks/港股/09922-九毛九.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D2" t="n">
-        <v>8.470000000000001</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>13.42</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>10.93</v>
+        <v>13.42</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>3.37</v>
+        <v>10.93</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>14.16</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>14.1</v>
+        <v>14.16</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>11.71</v>
+        <v>14.1</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>14</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>8</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.44</v>
       </c>
     </row>
@@ -616,7 +633,1706 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>67.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8117</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>30.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2420</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>870017</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管消费精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2973</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>460010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0593</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006721</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>平安核心优势混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006720</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>平安核心优势混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161124</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006263</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501054</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>106.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.5916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009576</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东方红智远三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>66.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3544</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安优质生活混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>20.74</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9789</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012346</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006604</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005644</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发沪港深行业龙头混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8185</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达港股通成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6530</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006595</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006605</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.60</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.5152</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>013392</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通优质增长混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5097</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3836</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012434</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银华多元回报一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>910006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2795</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012493</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2534</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010442</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方红启盛三年持有混合B</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009960</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>银华多元机遇混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>910024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2184</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014074</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1864</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014075</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实内需精选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013028</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>恒越品质生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>017627</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012494</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长信内需均衡混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011032</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>东方红睿泽三年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009856</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009734</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009855</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中加新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009733</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信港股通大消费精选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>81.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011494</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>014052</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华港股通精选股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011495</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华泰紫金丰和偏债混合发起C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>36.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010862</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>东方红启阳三年持有期混合B</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>007132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城港股通价值精选多策略混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1052,7 +2768,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1792,7 +3508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2297,7 +4013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2505,7 +4221,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3093,7 +4809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3786,7 +5502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4365,364 +6081,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009576</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东方红智远三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>67.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>90.91</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8117</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008133</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安优质生活混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>30.22</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.53</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.2420</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>870017</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发资管消费精选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.09</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.2973</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>460010</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞亚洲领导企业混合(QDII)</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>97.93</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0593</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006721</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>平安核心优势混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0157</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006720</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>平安核心优势混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>161124</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006263</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达香港恒生综合小型股指数（QDII-LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0019</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>